--- a/doc/李英本_裁剪201912.xlsx
+++ b/doc/李英本_裁剪201912.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="21000" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="工作确认单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>工作确认单</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>增加查询按钮：查询条件： 出货时间、工单、产品、状态（已完成，未完成复选框）</t>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+  </si>
+  <si>
+    <t>12:00-17:00</t>
   </si>
   <si>
     <t>将注销表写好</t>
@@ -165,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -238,75 +247,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,11 +282,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +345,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,36 +389,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -414,25 +423,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,19 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,115 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +697,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -703,15 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,15 +741,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,11 +762,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,9 +786,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,133 +814,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1375,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:H17"/>
+      <selection activeCell="F29" sqref="F29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1718,9 +1727,15 @@
       <c r="A18" s="16">
         <v>43813</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
@@ -1731,9 +1746,15 @@
       <c r="A19" s="16">
         <v>43814</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
@@ -1744,9 +1765,15 @@
       <c r="A20" s="16">
         <v>43815</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
@@ -1757,9 +1784,15 @@
       <c r="A21" s="16">
         <v>43816</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
@@ -1770,9 +1803,15 @@
       <c r="A22" s="16">
         <v>43817</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
@@ -1783,9 +1822,15 @@
       <c r="A23" s="16">
         <v>43818</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
@@ -1797,8 +1842,12 @@
         <v>43819</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
@@ -1915,7 +1964,7 @@
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
@@ -1930,7 +1979,7 @@
       <c r="D34" s="17"/>
       <c r="E34" s="23"/>
       <c r="F34" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
@@ -1949,10 +1998,10 @@
     </row>
     <row r="36" ht="27.75" customHeight="1" spans="1:9">
       <c r="A36" s="24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -1964,7 +2013,7 @@
     </row>
     <row r="37" ht="39" customHeight="1" spans="1:9">
       <c r="A37" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -1972,7 +2021,7 @@
       <c r="E37" s="28"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
